--- a/templates/3ASY01_RNASeqGEO.xlsx
+++ b/templates/3ASY01_RNASeqGEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/Transcriptomics_GEO/03_SWATEtemplate_v1.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF48570-EA3D-2747-A3ED-3E79F2EF7EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44DECF3-4D5C-7E4E-B6F2-2FB6A1AED20F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="-21100" windowWidth="18660" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeqGEO" sheetId="4" r:id="rId1"/>
@@ -996,8 +996,8 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
-  <SwateTable Table="annotationTable2" Worksheet="03_ASY01_RNASeqGEO_v1">
-    <TableValidation DateTime="2021-03-03 15:34" SwateVersion="0.4.0" TableName="annotationTable2" Userlist="" WorksheetName="03_ASY01_RNASeqGEO_v1">
+  <SwateTable Table="annotationTable2" Worksheet="3ASY01_RNASeqGEO">
+    <TableValidation DateTime="2021-03-03 16:34" SwateVersion="0.4.0" TableName="annotationTable2" Userlist="" WorksheetName="3ASY01_RNASeqGEO">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Library strategy]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Library strategy"/>
@@ -1017,79 +1017,11 @@
       <ColumnValidation ColumnAdress="45" ColumnHeader="Parameter [Raw data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
-  <Validation SwateVersion="0.3.1">
-    <TableValidation DateTime="2021-02-18 14:33" SwateVersion="0.3.1" TableName="annotationTable2" Userlist="" WorksheetName="03_ASY01_RNASeqGEO_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Library strategy]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Library strategy"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Library Selection]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Library Selection"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Library layout]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Library layout"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Library preparation kit version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Library preparation kit]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Adapter sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Adapt]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [Library RNA amount]" Importance="90" Unit="microgram" ValidationFormat="UnitTerm microgram"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Next generation sequencing instrument model]" Importance="80" Unit="None" ValidationFormat="OntologyTerm Next generation sequencing instrument model"/>
-      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [Base-calling Software]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [Base-calling Software Version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [Base-calling Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="41" ColumnHeader="Parameter [Library strand]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="44" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="45" ColumnHeader="Parameter [Raw data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="48" ColumnHeader="Parameter [Raw data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-    <TableValidation DateTime="2021-02-18 20:28" SwateVersion="0.3.1" TableName="annotationTable1" Userlist="" WorksheetName="02_EXT01_RNA_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Sample Collection Method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Metabolism quenching method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Sample storage]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Biosource amount]" Importance="80" Unit="milligram" ValidationFormat="UnitTerm milligram"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Characteristics [Extraction Kit]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-    <TableValidation DateTime="2021-02-18 21:26" SwateVersion="0.3.1" TableName="annotationTable" Userlist="" WorksheetName="01_SPL01_plants_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Characteristics [Organism]" Importance="90" Unit="None" ValidationFormat="OntologyTerm Organism"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Characteristics [Genotype]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Characteristics [Organism part]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Characteristics [age]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Characteristics [study type]" Importance="80" Unit="None" ValidationFormat="OntologyTerm study type"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Characteristics [plant growth medium exposure]" Importance="50" Unit="None" ValidationFormat="OntologyTerm plant growth medium exposure"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Characteristics [growth plot design]" Importance="50" Unit="None" ValidationFormat="OntologyTerm growth plot design"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Characteristics [Growth day length]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Characteristics [light intensity exposure]" Importance="90" Unit="microeinstein per square meter per second" ValidationFormat="UnitTerm microeinstein per square meter per second"/>
-      <ColumnValidation ColumnAdress="32" ColumnHeader="Characteristics [Humidity Day]" Importance="90" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="38" ColumnHeader="Characteristics [Humidity Night]" Importance="90" Unit="percent" ValidationFormat="UnitTerm percent"/>
-      <ColumnValidation ColumnAdress="44" ColumnHeader="Characteristics [Temperature Day]" Importance="100" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="50" ColumnHeader="Characteristics [Temperature Night]" Importance="100" Unit="degree Celsius" ValidationFormat="UnitTerm degree Celsius"/>
-      <ColumnValidation ColumnAdress="56" ColumnHeader="Characteristics [watering exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="59" ColumnHeader="Characteristics [plant nutrient exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="62" ColumnHeader="Characteristics [abiotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="65" ColumnHeader="Characteristics [biotic plant exposure]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="68" ColumnHeader="Characteristics [Time point]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-    <TableValidation DateTime="2021-02-18 13:03" SwateVersion="0.3.1" TableName="annotationTable3" Userlist="" WorksheetName="04_COM01_RNASeqGEO_v1">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Data filtering software]" Importance="None" Unit="None" ValidationFormat="Url"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Data filtering software version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Data filtering Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Read Alignment Software]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Read Alignment Software Version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Read Alignment Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Genome reference sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [Processed data file name]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Processed data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
-    </TableValidation>
-  </Validation>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A14A2D20-CF7D-854E-B0AA-5E52720BAC88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35ED4F53-995D-CE4D-BAD2-13A67A6ECCF5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>